--- a/Tabela Nutricional Alimentos Genericos.xlsx
+++ b/Tabela Nutricional Alimentos Genericos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19635" windowHeight="7200"/>
+    <workbookView windowWidth="19635" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,11 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
   <si>
     <t>Alimento</t>
   </si>
   <si>
+    <t>Porção / Quantidade g/ml</t>
+  </si>
+  <si>
     <t>Valor Energetico kcal = KJ</t>
   </si>
   <si>
@@ -70,6 +73,12 @@
     <t>Feijão preto</t>
   </si>
   <si>
+    <t>60g</t>
+  </si>
+  <si>
+    <t>209=878</t>
+  </si>
+  <si>
     <t>Macarrão</t>
   </si>
   <si>
@@ -142,7 +151,10 @@
     <t>Atum enlatado</t>
   </si>
   <si>
-    <t>Leite</t>
+    <t>Leite Integral</t>
+  </si>
+  <si>
+    <t>200ml</t>
   </si>
   <si>
     <t>Queijo branco</t>
@@ -377,6 +389,9 @@
   </si>
   <si>
     <t>Aveia Integral em Flocos</t>
+  </si>
+  <si>
+    <t>30g / 2 Colheres de sopa</t>
   </si>
   <si>
     <t>102 = 428</t>
@@ -1018,16 +1033,26 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1087,6 +1112,7 @@
         <name val="Segoe UI"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="left" vertical="center"/>
     </dxf>
     <dxf>
       <font>
@@ -1302,25 +1328,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A:P" totalsRowShown="0">
-  <autoFilter ref="A1:P1048576"/>
-  <tableColumns count="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A:Q" totalsRowShown="0">
+  <autoFilter ref="A1:Q1048576"/>
+  <tableColumns count="17">
     <tableColumn id="1" name="Alimento" dataDxfId="0"/>
-    <tableColumn id="2" name="Valor Energetico kcal = KJ" dataDxfId="1"/>
-    <tableColumn id="3" name="Proteinas (g)" dataDxfId="2"/>
-    <tableColumn id="4" name="Carboidratos (g)" dataDxfId="3"/>
-    <tableColumn id="5" name="Açúcares (g)" dataDxfId="4"/>
-    <tableColumn id="6" name="Gorduras Totais (g)" dataDxfId="5"/>
-    <tableColumn id="7" name="Gorduras Saturadas (g)" dataDxfId="6"/>
-    <tableColumn id="8" name="Gorduras Trans (g)" dataDxfId="7"/>
-    <tableColumn id="9" name="Fibra Alimentar (g)" dataDxfId="8"/>
-    <tableColumn id="10" name="Coluna9" dataDxfId="9"/>
-    <tableColumn id="11" name="Coluna10" dataDxfId="10"/>
-    <tableColumn id="12" name="Coluna11" dataDxfId="11"/>
-    <tableColumn id="13" name="Coluna12" dataDxfId="12"/>
-    <tableColumn id="14" name="Coluna13" dataDxfId="13"/>
-    <tableColumn id="15" name="Coluna14" dataDxfId="14"/>
-    <tableColumn id="16" name="Coluna15" dataDxfId="15"/>
+    <tableColumn id="2" name="Porção / Quantidade g/ml" dataDxfId="1"/>
+    <tableColumn id="3" name="Valor Energetico kcal = KJ" dataDxfId="2"/>
+    <tableColumn id="4" name="Proteinas (g)" dataDxfId="3"/>
+    <tableColumn id="5" name="Carboidratos (g)" dataDxfId="4"/>
+    <tableColumn id="6" name="Açúcares (g)" dataDxfId="5"/>
+    <tableColumn id="7" name="Gorduras Totais (g)" dataDxfId="6"/>
+    <tableColumn id="8" name="Gorduras Saturadas (g)" dataDxfId="7"/>
+    <tableColumn id="9" name="Gorduras Trans (g)" dataDxfId="8"/>
+    <tableColumn id="10" name="Fibra Alimentar (g)" dataDxfId="9"/>
+    <tableColumn id="11" name="Coluna9" dataDxfId="10"/>
+    <tableColumn id="12" name="Coluna10" dataDxfId="11"/>
+    <tableColumn id="13" name="Coluna11" dataDxfId="12"/>
+    <tableColumn id="14" name="Coluna12" dataDxfId="13"/>
+    <tableColumn id="15" name="Coluna13" dataDxfId="14"/>
+    <tableColumn id="16" name="Coluna14" dataDxfId="15"/>
+    <tableColumn id="17" name="Coluna15"/>
   </tableColumns>
   <tableStyleInfo name="TableStylePreset3_Accent1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1584,28 +1611,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P106"/>
+  <dimension ref="A1:Q106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B94" workbookViewId="0">
-      <selection activeCell="J106" sqref="J106"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
     <col min="1" max="1" width="35.2857142857143" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.4285714285714" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.7142857142857" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.7142857142857" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.7142857142857" style="2" customWidth="1"/>
-    <col min="6" max="6" width="19.7142857142857" style="2" customWidth="1"/>
-    <col min="7" max="7" width="23.7142857142857" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.7142857142857" style="2" customWidth="1"/>
-    <col min="9" max="9" width="20.7142857142857" style="2" customWidth="1"/>
-    <col min="10" max="16" width="15.7142857142857" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.7142857142857" style="2" customWidth="1"/>
+    <col min="3" max="3" width="25.4285714285714" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.7142857142857" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.7142857142857" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.7142857142857" style="3" customWidth="1"/>
+    <col min="7" max="7" width="19.7142857142857" style="3" customWidth="1"/>
+    <col min="8" max="8" width="23.7142857142857" style="3" customWidth="1"/>
+    <col min="9" max="9" width="19.7142857142857" style="3" customWidth="1"/>
+    <col min="10" max="10" width="20.7142857142857" style="3" customWidth="1"/>
+    <col min="11" max="17" width="15.7142857142857" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="16.5" spans="1:17">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1653,553 +1681,613 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" ht="17.25" spans="1:1">
-      <c r="A2" s="3" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" ht="17.25" spans="1:1">
-      <c r="A3" s="3" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" ht="17.25" spans="1:1">
-      <c r="A4" s="3" t="s">
+    <row r="3" spans="1:10">
+      <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" ht="17.25" spans="1:1">
-      <c r="A5" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" ht="17.25" spans="1:1">
-      <c r="A6" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" ht="17.25" spans="1:1">
-      <c r="A7" s="3" t="s">
+      <c r="D3" s="3">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3">
+        <v>37</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" ht="17.25" spans="1:1">
-      <c r="A8" s="3" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" ht="17.25" spans="1:1">
-      <c r="A9" s="3" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" ht="17.25" spans="1:1">
-      <c r="A10" s="3" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" ht="17.25" spans="1:1">
-      <c r="A11" s="3" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" ht="17.25" spans="1:1">
-      <c r="A12" s="3" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" ht="17.25" spans="1:1">
-      <c r="A13" s="3" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" ht="17.25" spans="1:1">
-      <c r="A14" s="3" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" ht="17.25" spans="1:1">
-      <c r="A15" s="3" t="s">
+    <row r="12" spans="1:1">
+      <c r="A12" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" ht="17.25" spans="1:1">
-      <c r="A16" s="3" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" ht="17.25" spans="1:1">
-      <c r="A17" s="3" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" ht="17.25" spans="1:1">
-      <c r="A18" s="3" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" ht="17.25" spans="1:1">
-      <c r="A19" s="3" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" ht="17.25" spans="1:1">
-      <c r="A20" s="3" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" ht="17.25" spans="1:1">
-      <c r="A21" s="3" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" ht="17.25" spans="1:1">
-      <c r="A22" s="3" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" ht="17.25" spans="1:1">
-      <c r="A23" s="3" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" ht="17.25" spans="1:1">
-      <c r="A24" s="3" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" ht="17.25" spans="1:1">
-      <c r="A25" s="3" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="26" ht="17.25" spans="1:1">
-      <c r="A26" s="3" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="27" ht="17.25" spans="1:1">
-      <c r="A27" s="3" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="28" ht="17.25" spans="1:1">
-      <c r="A28" s="3" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" ht="17.25" spans="1:1">
-      <c r="A29" s="3" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="30" ht="17.25" spans="1:1">
-      <c r="A30" s="3" t="s">
+    <row r="27" spans="1:1">
+      <c r="A27" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="31" ht="17.25" spans="1:1">
-      <c r="A31" s="3" t="s">
+    <row r="28" spans="1:10">
+      <c r="A28" s="5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="32" ht="17.25" spans="1:1">
-      <c r="A32" s="3" t="s">
+      <c r="B28" s="6" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="33" ht="17.25" spans="1:1">
-      <c r="A33" s="3" t="s">
+      <c r="C28" s="3">
+        <v>114</v>
+      </c>
+      <c r="D28" s="3">
+        <v>6</v>
+      </c>
+      <c r="E28" s="3">
+        <v>9</v>
+      </c>
+      <c r="F28" s="3">
+        <v>9</v>
+      </c>
+      <c r="G28" s="3">
+        <v>6</v>
+      </c>
+      <c r="H28" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="I28" s="3">
+        <v>0</v>
+      </c>
+      <c r="J28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="34" ht="17.25" spans="1:1">
-      <c r="A34" s="3" t="s">
+    <row r="30" spans="1:1">
+      <c r="A30" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="35" ht="17.25" spans="1:1">
-      <c r="A35" s="3" t="s">
+    <row r="31" spans="1:1">
+      <c r="A31" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="36" ht="17.25" spans="1:1">
-      <c r="A36" s="3" t="s">
+    <row r="32" spans="1:1">
+      <c r="A32" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="37" ht="17.25" spans="1:1">
-      <c r="A37" s="3" t="s">
+    <row r="33" spans="1:1">
+      <c r="A33" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="38" ht="17.25" spans="1:1">
-      <c r="A38" s="3" t="s">
+    <row r="34" spans="1:1">
+      <c r="A34" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="39" ht="17.25" spans="1:1">
-      <c r="A39" s="3" t="s">
+    <row r="35" spans="1:1">
+      <c r="A35" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="40" ht="17.25" spans="1:1">
-      <c r="A40" s="3" t="s">
+    <row r="36" spans="1:1">
+      <c r="A36" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="41" ht="17.25" spans="1:1">
-      <c r="A41" s="3" t="s">
+    <row r="37" spans="1:1">
+      <c r="A37" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="42" ht="17.25" spans="1:1">
-      <c r="A42" s="3" t="s">
+    <row r="38" spans="1:1">
+      <c r="A38" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="43" ht="17.25" spans="1:1">
-      <c r="A43" s="3" t="s">
+    <row r="39" spans="1:1">
+      <c r="A39" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="44" ht="17.25" spans="1:1">
-      <c r="A44" s="3" t="s">
+    <row r="40" spans="1:1">
+      <c r="A40" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="45" ht="17.25" spans="1:1">
-      <c r="A45" s="3" t="s">
+    <row r="41" spans="1:1">
+      <c r="A41" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="46" ht="17.25" spans="1:1">
-      <c r="A46" s="3" t="s">
+    <row r="42" spans="1:1">
+      <c r="A42" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="47" ht="17.25" spans="1:1">
-      <c r="A47" s="3" t="s">
+    <row r="43" spans="1:1">
+      <c r="A43" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="48" ht="17.25" spans="1:1">
-      <c r="A48" s="3" t="s">
+    <row r="44" spans="1:1">
+      <c r="A44" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="49" ht="17.25" spans="1:1">
-      <c r="A49" s="3" t="s">
+    <row r="45" spans="1:1">
+      <c r="A45" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="50" ht="17.25" spans="1:1">
-      <c r="A50" s="3" t="s">
+    <row r="46" spans="1:1">
+      <c r="A46" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="51" ht="17.25" spans="1:1">
-      <c r="A51" s="3" t="s">
+    <row r="47" spans="1:1">
+      <c r="A47" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="52" ht="17.25" spans="1:1">
-      <c r="A52" s="3" t="s">
+    <row r="48" spans="1:1">
+      <c r="A48" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="53" ht="17.25" spans="1:1">
-      <c r="A53" s="3" t="s">
+    <row r="49" spans="1:1">
+      <c r="A49" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="54" ht="17.25" spans="1:1">
-      <c r="A54" s="3" t="s">
+    <row r="50" spans="1:1">
+      <c r="A50" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="55" ht="17.25" spans="1:1">
-      <c r="A55" s="3" t="s">
+    <row r="51" spans="1:1">
+      <c r="A51" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="56" ht="17.25" spans="1:1">
-      <c r="A56" s="3" t="s">
+    <row r="52" spans="1:1">
+      <c r="A52" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="57" ht="17.25" spans="1:1">
-      <c r="A57" s="3" t="s">
+    <row r="53" spans="1:1">
+      <c r="A53" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="58" ht="17.25" spans="1:1">
-      <c r="A58" s="3" t="s">
+    <row r="54" spans="1:1">
+      <c r="A54" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="59" ht="17.25" spans="1:1">
-      <c r="A59" s="3" t="s">
+    <row r="55" spans="1:1">
+      <c r="A55" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="60" ht="17.25" spans="1:1">
-      <c r="A60" s="3" t="s">
+    <row r="56" spans="1:1">
+      <c r="A56" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="61" ht="17.25" spans="1:1">
-      <c r="A61" s="3" t="s">
+    <row r="57" spans="1:1">
+      <c r="A57" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="62" ht="17.25" spans="1:1">
-      <c r="A62" s="3" t="s">
+    <row r="58" spans="1:1">
+      <c r="A58" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="63" ht="17.25" spans="1:1">
-      <c r="A63" s="3" t="s">
+    <row r="59" spans="1:1">
+      <c r="A59" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="64" ht="17.25" spans="1:1">
-      <c r="A64" s="3" t="s">
+    <row r="60" spans="1:1">
+      <c r="A60" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="65" ht="17.25" spans="1:1">
-      <c r="A65" s="3" t="s">
+    <row r="61" spans="1:1">
+      <c r="A61" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="66" ht="17.25" spans="1:1">
-      <c r="A66" s="3" t="s">
+    <row r="62" spans="1:1">
+      <c r="A62" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="67" ht="17.25" spans="1:1">
-      <c r="A67" s="3" t="s">
+    <row r="63" spans="1:1">
+      <c r="A63" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="68" ht="17.25" spans="1:1">
-      <c r="A68" s="3" t="s">
+    <row r="64" spans="1:1">
+      <c r="A64" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="69" ht="17.25" spans="1:1">
-      <c r="A69" s="3" t="s">
+    <row r="65" spans="1:1">
+      <c r="A65" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="70" ht="17.25" spans="1:1">
-      <c r="A70" s="3" t="s">
+    <row r="66" spans="1:1">
+      <c r="A66" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="71" ht="17.25" spans="1:1">
-      <c r="A71" s="3" t="s">
+    <row r="67" spans="1:1">
+      <c r="A67" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="72" ht="17.25" spans="1:1">
-      <c r="A72" s="3" t="s">
+    <row r="68" spans="1:1">
+      <c r="A68" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="73" ht="17.25" spans="1:1">
-      <c r="A73" s="3" t="s">
+    <row r="69" spans="1:1">
+      <c r="A69" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="74" ht="17.25" spans="1:1">
-      <c r="A74" s="3" t="s">
+    <row r="70" spans="1:1">
+      <c r="A70" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="75" ht="17.25" spans="1:1">
-      <c r="A75" s="3" t="s">
+    <row r="71" spans="1:1">
+      <c r="A71" s="5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="76" ht="17.25" spans="1:1">
-      <c r="A76" s="3" t="s">
+    <row r="72" spans="1:1">
+      <c r="A72" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="77" ht="17.25" spans="1:1">
-      <c r="A77" s="3" t="s">
+    <row r="73" spans="1:1">
+      <c r="A73" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="78" ht="17.25" spans="1:1">
-      <c r="A78" s="3" t="s">
+    <row r="74" spans="1:1">
+      <c r="A74" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="79" ht="17.25" spans="1:1">
-      <c r="A79" s="3" t="s">
+    <row r="75" spans="1:1">
+      <c r="A75" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="80" ht="17.25" spans="1:1">
-      <c r="A80" s="3" t="s">
+    <row r="76" spans="1:1">
+      <c r="A76" s="5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="81" ht="17.25" spans="1:1">
-      <c r="A81" s="3" t="s">
+    <row r="77" spans="1:1">
+      <c r="A77" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="82" ht="17.25" spans="1:1">
-      <c r="A82" s="3" t="s">
+    <row r="78" spans="1:1">
+      <c r="A78" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="83" ht="17.25" spans="1:1">
-      <c r="A83" s="3" t="s">
+    <row r="79" spans="1:1">
+      <c r="A79" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="84" ht="17.25" spans="1:1">
-      <c r="A84" s="3" t="s">
+    <row r="80" spans="1:1">
+      <c r="A80" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="85" ht="17.25" spans="1:1">
-      <c r="A85" s="3" t="s">
+    <row r="81" spans="1:1">
+      <c r="A81" s="5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="86" ht="17.25" spans="1:1">
-      <c r="A86" s="3" t="s">
+    <row r="82" spans="1:1">
+      <c r="A82" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="87" ht="17.25" spans="1:1">
-      <c r="A87" s="3" t="s">
+    <row r="83" spans="1:1">
+      <c r="A83" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="88" ht="17.25" spans="1:1">
-      <c r="A88" s="3" t="s">
+    <row r="84" spans="1:1">
+      <c r="A84" s="5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="89" ht="17.25" spans="1:1">
-      <c r="A89" s="3" t="s">
+    <row r="85" spans="1:1">
+      <c r="A85" s="5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="90" ht="17.25" spans="1:1">
-      <c r="A90" s="3" t="s">
+    <row r="86" spans="1:1">
+      <c r="A86" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="91" ht="17.25" spans="1:1">
-      <c r="A91" s="3" t="s">
+    <row r="87" spans="1:1">
+      <c r="A87" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="92" ht="17.25" spans="1:1">
-      <c r="A92" s="3" t="s">
+    <row r="88" spans="1:1">
+      <c r="A88" s="5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="93" ht="17.25" spans="1:1">
-      <c r="A93" s="3" t="s">
+    <row r="89" spans="1:1">
+      <c r="A89" s="5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="94" ht="17.25" spans="1:1">
-      <c r="A94" s="3" t="s">
+    <row r="90" spans="1:1">
+      <c r="A90" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="95" ht="17.25" spans="1:1">
-      <c r="A95" s="3" t="s">
+    <row r="91" spans="1:1">
+      <c r="A91" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="96" ht="17.25" spans="1:1">
-      <c r="A96" s="3" t="s">
+    <row r="92" spans="1:1">
+      <c r="A92" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="97" ht="17.25" spans="1:1">
-      <c r="A97" s="3" t="s">
+    <row r="93" spans="1:1">
+      <c r="A93" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="98" ht="17.25" spans="1:1">
-      <c r="A98" s="3" t="s">
+    <row r="94" spans="1:1">
+      <c r="A94" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="99" ht="17.25" spans="1:1">
-      <c r="A99" s="3" t="s">
+    <row r="95" spans="1:1">
+      <c r="A95" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="100" ht="17.25" spans="1:1">
-      <c r="A100" s="3" t="s">
+    <row r="96" spans="1:1">
+      <c r="A96" s="5" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="101" ht="17.25" spans="1:1">
-      <c r="A101" s="3" t="s">
+    <row r="97" spans="1:1">
+      <c r="A97" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="102" ht="17.25" spans="1:1">
-      <c r="A102" s="4" t="s">
+    <row r="98" spans="1:1">
+      <c r="A98" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="103" ht="17.25" spans="1:1">
-      <c r="A103" s="4" t="s">
+    <row r="99" spans="1:1">
+      <c r="A99" s="5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="104" ht="17.25" spans="1:1">
-      <c r="A104" s="4" t="s">
+    <row r="100" spans="1:1">
+      <c r="A100" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="105" ht="17.25" spans="1:1">
-      <c r="A105" s="4" t="s">
+    <row r="101" spans="1:1">
+      <c r="A101" s="5" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="106" ht="17.25" spans="1:9">
+    <row r="102" spans="1:1">
+      <c r="A102" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B106" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C106" s="2">
+        <v>124</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D106" s="3">
         <v>4.8</v>
       </c>
-      <c r="D106" s="2">
+      <c r="E106" s="3">
         <v>17</v>
       </c>
-      <c r="E106" s="2">
+      <c r="F106" s="3">
         <v>0</v>
       </c>
-      <c r="F106" s="2">
+      <c r="G106" s="3">
         <v>1.8</v>
       </c>
-      <c r="G106" s="2">
+      <c r="H106" s="3">
         <v>0.4</v>
       </c>
-      <c r="H106" s="2">
+      <c r="I106" s="3">
         <v>0</v>
       </c>
-      <c r="I106" s="2">
+      <c r="J106" s="3">
         <v>3</v>
       </c>
     </row>
